--- a/outputs_HGR/train-c__Bacilli.xlsx
+++ b/outputs_HGR/train-c__Bacilli.xlsx
@@ -18,1104 +18,1263 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="421">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>label_Bacillus19.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus22.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus28.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus29.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus34.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus41.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus43.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus47.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus49.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus50.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus57.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus61.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus62.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus64.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus65.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus70.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus71.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus75.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus76.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus79.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium1.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium3.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium7.fasta</t>
+  </si>
+  <si>
+    <t>label_Gemella1.fasta</t>
+  </si>
+  <si>
+    <t>label_Gemella2.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus13.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus20.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus23.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus25.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus29.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus12.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus25.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus29.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus30.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus32.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus34.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus39.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus41.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus45.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Granulicatella2.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus10.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus18.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus20.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus23.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus27.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus29.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus40.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus41.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus59.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus63.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus66.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus67.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus75.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus76.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus77.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus85.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus88.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus99.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc10.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc11.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc2.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc9.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus14.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus22.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus30.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus35.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus36.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus43.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus46.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus47.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus63.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Weissella1.fasta</t>
+  </si>
+  <si>
+    <t>o__Bacillales</t>
+  </si>
+  <si>
+    <t>o__Lactobacillales</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>label_Bacillus12.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus15.fasta</t>
+  </si>
+  <si>
     <t>label_Bacillus17.fasta</t>
   </si>
   <si>
     <t>label_Bacillus20.fasta</t>
   </si>
   <si>
+    <t>label_Bacillus27.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus31.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus32.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus38.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus40.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus42.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus44.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus45.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus46.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus51.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus55.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus56.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus58.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus60.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus67.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus69.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus72.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus73.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus77.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus80.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus81.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium5.fasta</t>
+  </si>
+  <si>
+    <t>label_Gemella0.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus17.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus23.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus10.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus14.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus15.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus16.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus28.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus30.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus34.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus14.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus17.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus18.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus22.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus27.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus31.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus33.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus46.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus48.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus103.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus31.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus33.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus39.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus43.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus44.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus53.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus55.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus57.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus71.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus86.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus96.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc8.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus13.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus16.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus19.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus21.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus24.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus34.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus38.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus48.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus50.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus55.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus59.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus62.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus64.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus68.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus16.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus24.fasta</t>
+  </si>
+  <si>
     <t>label_Bacillus26.fasta</t>
   </si>
   <si>
-    <t>label_Bacillus27.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus31.fasta</t>
-  </si>
-  <si>
     <t>label_Bacillus36.fasta</t>
   </si>
   <si>
-    <t>label_Bacillus38.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus44.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus46.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus51.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus56.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus57.fasta</t>
+    <t>label_Bacillus37.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus39.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus78.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium6.fasta</t>
+  </si>
+  <si>
+    <t>label_Listeria0.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus12.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus18.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus19.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus24.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus25.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus12.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus13.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus22.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus24.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus31.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus33.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus36.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus37.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus38.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus16.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus23.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus24.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus28.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus35.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus44.fasta</t>
+  </si>
+  <si>
+    <t>label_Granulicatella3.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus100.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus105.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus107.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus12.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus13.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus17.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus19.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus28.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus36.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus37.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus42.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus48.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus49.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus50.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus60.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus62.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus65.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus70.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus79.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus82.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus83.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus89.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus92.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus98.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus10.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus17.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus25.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus26.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus27.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus29.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus31.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus37.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus39.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus44.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus45.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus51.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus60.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus61.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus65.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus67.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus18.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus21.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus25.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus48.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus52.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus53.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus54.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus74.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium4.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium8.fasta</t>
+  </si>
+  <si>
+    <t>label_Listeria1.fasta</t>
+  </si>
+  <si>
+    <t>label_Listeria3.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus14.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus16.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus17.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus18.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus19.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus21.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus26.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus27.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus13.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus21.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus36.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus37.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus43.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Granulicatella1.fasta</t>
+  </si>
+  <si>
+    <t>label_Granulicatella4.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus102.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus108.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus16.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus21.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus22.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus25.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus30.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus32.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus35.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus45.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus51.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus56.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus61.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus74.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus80.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus84.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus87.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus90.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc3.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc6.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc7.fasta</t>
+  </si>
+  <si>
+    <t>label_Pediococcus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus12.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus15.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus18.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus20.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus23.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus28.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus32.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus33.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus42.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus52.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus56.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus57.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus66.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Weissella2.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus10.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus13.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus14.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus23.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus30.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus33.fasta</t>
+  </si>
+  <si>
+    <t>label_Bacillus35.fasta</t>
   </si>
   <si>
     <t>label_Bacillus59.fasta</t>
   </si>
   <si>
-    <t>label_Bacillus6.fasta</t>
-  </si>
-  <si>
     <t>label_Bacillus63.fasta</t>
   </si>
   <si>
-    <t>label_Bacillus64.fasta</t>
+    <t>label_Bacillus66.fasta</t>
   </si>
   <si>
     <t>label_Bacillus68.fasta</t>
   </si>
   <si>
-    <t>label_Bacillus69.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus76.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus8.fasta</t>
+    <t>label_Bacillus7.fasta</t>
   </si>
   <si>
     <t>label_Bacillus9.fasta</t>
   </si>
   <si>
-    <t>label_Listeria0.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus13.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus19.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus18.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus22.fasta</t>
+    <t>label_Exiguobacterium0.fasta</t>
+  </si>
+  <si>
+    <t>label_Exiguobacterium2.fasta</t>
+  </si>
+  <si>
+    <t>label_Listeria2.fasta</t>
+  </si>
+  <si>
+    <t>label_Listeria4.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus10.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus15.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus20.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus21.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus22.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Paenibacillus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus32.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus35.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus39.fasta</t>
+  </si>
+  <si>
+    <t>label_Staphylococcus40.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus10.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus15.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus19.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus20.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus26.fasta</t>
   </si>
   <si>
     <t>label_Enterococcus38.fasta</t>
   </si>
   <si>
-    <t>label_Enterococcus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus6.fasta</t>
+    <t>label_Enterococcus40.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus42.fasta</t>
+  </si>
+  <si>
+    <t>label_Enterococcus47.fasta</t>
   </si>
   <si>
     <t>label_Granulicatella0.fasta</t>
   </si>
   <si>
-    <t>label_Granulicatella2.fasta</t>
-  </si>
-  <si>
-    <t>label_Granulicatella4.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus0.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus100.fasta</t>
+    <t>label_Granulicatella5.fasta</t>
   </si>
   <si>
     <t>label_Lactobacillus101.fasta</t>
   </si>
   <si>
+    <t>label_Lactobacillus104.fasta</t>
+  </si>
+  <si>
     <t>label_Lactobacillus106.fasta</t>
   </si>
   <si>
-    <t>label_Lactobacillus12.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus13.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus19.fasta</t>
+    <t>label_Lactobacillus14.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus15.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus2.fasta</t>
   </si>
   <si>
     <t>label_Lactobacillus24.fasta</t>
   </si>
   <si>
-    <t>label_Lactobacillus39.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus41.fasta</t>
+    <t>label_Lactobacillus26.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus34.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus38.fasta</t>
   </si>
   <si>
     <t>label_Lactobacillus46.fasta</t>
   </si>
   <si>
-    <t>label_Lactobacillus56.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus57.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus70.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus75.fasta</t>
+    <t>label_Lactobacillus47.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus52.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus54.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus58.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus64.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus68.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus69.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus72.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus73.fasta</t>
   </si>
   <si>
     <t>label_Lactobacillus78.fasta</t>
   </si>
   <si>
-    <t>label_Lactobacillus85.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus86.fasta</t>
+    <t>label_Lactobacillus81.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus91.fasta</t>
   </si>
   <si>
     <t>label_Lactobacillus93.fasta</t>
   </si>
   <si>
-    <t>label_Lactobacillus96.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc6.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc9.fasta</t>
-  </si>
-  <si>
-    <t>label_Pediococcus0.fasta</t>
+    <t>label_Lactobacillus94.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus95.fasta</t>
+  </si>
+  <si>
+    <t>label_Lactobacillus97.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc0.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc1.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc4.fasta</t>
+  </si>
+  <si>
+    <t>label_Leuconostoc5.fasta</t>
   </si>
   <si>
     <t>label_Streptococcus0.fasta</t>
   </si>
   <si>
-    <t>label_Streptococcus15.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus25.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus34.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus39.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus46.fasta</t>
+    <t>label_Streptococcus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus40.fasta</t>
+  </si>
+  <si>
+    <t>label_Streptococcus41.fasta</t>
   </si>
   <si>
     <t>label_Streptococcus49.fasta</t>
   </si>
   <si>
-    <t>label_Streptococcus5.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus52.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus62.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus66.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus9.fasta</t>
-  </si>
-  <si>
-    <t>label_Weissella1.fasta</t>
-  </si>
-  <si>
-    <t>o__Bacillales</t>
-  </si>
-  <si>
-    <t>o__Lactobacillales</t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>label_Bacillus14.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus16.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus19.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus25.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus29.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus35.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus37.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus39.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus40.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus41.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus42.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus45.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus5.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus50.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus52.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus55.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus60.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus61.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus65.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus66.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus72.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus73.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus78.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus81.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus21.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus8.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus11.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus12.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus21.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus24.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus36.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus41.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus44.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus47.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus8.fasta</t>
-  </si>
-  <si>
-    <t>label_Granulicatella3.fasta</t>
-  </si>
-  <si>
-    <t>label_Granulicatella5.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus107.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus11.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus15.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus32.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus47.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus48.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus5.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus54.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus58.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus66.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus68.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus81.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus88.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus94.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus98.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc3.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus14.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus21.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus24.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus27.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus29.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus38.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus50.fasta</t>
-  </si>
-  <si>
     <t>label_Streptococcus53.fasta</t>
   </si>
   <si>
+    <t>label_Streptococcus54.fasta</t>
+  </si>
+  <si>
     <t>label_Streptococcus58.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus61.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus65.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus8.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus15.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus18.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus22.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus24.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus33.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus34.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus70.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus79.fasta</t>
-  </si>
-  <si>
-    <t>label_Listeria1.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus11.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus12.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus17.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus18.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus22.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus23.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus24.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus6.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus9.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus0.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus17.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus19.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus25.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus27.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus29.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus31.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus32.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus33.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus43.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus48.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus5.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus9.fasta</t>
-  </si>
-  <si>
-    <t>label_Granulicatella1.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus105.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus22.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus25.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus29.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus30.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus33.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus34.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus38.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus51.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus52.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus61.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus62.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus71.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus72.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus74.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus77.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus80.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus90.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus91.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus97.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc1.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc5.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus18.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus22.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus30.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus32.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus35.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus40.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus41.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus47.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus48.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus54.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus63.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus64.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus67.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus0.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus11.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus23.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus43.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus47.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus48.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus49.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus54.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus67.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus71.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus80.fasta</t>
-  </si>
-  <si>
-    <t>label_Listeria3.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus14.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus16.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus5.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus13.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus14.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus15.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus16.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus20.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus23.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus34.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus35.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus37.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus40.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus46.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus104.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus14.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus16.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus18.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus20.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus23.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus27.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus31.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus37.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus42.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus43.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus44.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus49.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus55.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus59.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus63.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus64.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus69.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus73.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus84.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus89.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus92.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus95.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus99.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus12.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus13.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus16.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus19.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus20.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus23.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus26.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus28.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus31.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus33.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus36.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus37.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus42.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus45.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus55.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus59.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus6.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus68.fasta</t>
-  </si>
-  <si>
-    <t>label_Weissella2.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus12.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus13.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus21.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus28.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus30.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus32.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus53.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus58.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus62.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus74.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus75.fasta</t>
-  </si>
-  <si>
-    <t>label_Bacillus77.fasta</t>
-  </si>
-  <si>
-    <t>label_Listeria2.fasta</t>
-  </si>
-  <si>
-    <t>label_Listeria4.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus0.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus15.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus20.fasta</t>
-  </si>
-  <si>
-    <t>label_Paenibacillus25.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus26.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus28.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus30.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus39.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus42.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus45.fasta</t>
-  </si>
-  <si>
-    <t>label_Enterococcus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus102.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus103.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus108.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus17.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus21.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus26.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus28.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus35.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus36.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus40.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus45.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus50.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus53.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus6.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus60.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus65.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus67.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus76.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus79.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus8.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus82.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus83.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus87.fasta</t>
-  </si>
-  <si>
-    <t>label_Lactobacillus9.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc0.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc10.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc11.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc2.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc4.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc7.fasta</t>
-  </si>
-  <si>
-    <t>label_Leuconostoc8.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus11.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus17.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus43.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus44.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus51.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus56.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus57.fasta</t>
-  </si>
-  <si>
-    <t>label_Streptococcus60.fasta</t>
   </si>
   <si>
     <t>label_Weissella0.fasta</t>
@@ -1185,11 +1344,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.5703125" customWidth="true"/>
+    <col min="1" max="1" width="27.28515625" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="17.140625" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
@@ -1200,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -1217,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999778</v>
+        <v>0.99960287944556991</v>
       </c>
       <c r="C2">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00039712055443009465</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1234,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999778</v>
+        <v>0.90985010189999271</v>
       </c>
       <c r="C3">
-        <v>2.2204460492502639e-14</v>
+        <v>0.090149898100007259</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1251,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999778</v>
+        <v>0.99991283731927438</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502639e-14</v>
+        <v>8.7162680725622833e-05</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1268,10 +1427,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999778</v>
+        <v>0.99996337927402057</v>
       </c>
       <c r="C5">
-        <v>2.2204460492502639e-14</v>
+        <v>3.6620725979461366e-05</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1285,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999778</v>
+        <v>0.99998354649958809</v>
       </c>
       <c r="C6">
-        <v>2.2204460492502639e-14</v>
+        <v>1.6453500411947163e-05</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1302,10 +1461,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999778</v>
+        <v>0.9987262263801242</v>
       </c>
       <c r="C7">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0012737736198757672</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1319,10 +1478,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999778</v>
+        <v>0.99987282149544066</v>
       </c>
       <c r="C8">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00012717850455931675</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1336,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999778</v>
+        <v>0.99988183524764085</v>
       </c>
       <c r="C9">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00011816475235917899</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1353,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999778</v>
+        <v>0.99658371383271249</v>
       </c>
       <c r="C10">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0034162861672874891</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1370,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999778</v>
+        <v>0.99635583480573731</v>
       </c>
       <c r="C11">
-        <v>2.2204460492502639e-14</v>
+        <v>0.003644165194262694</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1387,10 +1546,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999778</v>
+        <v>0.99932828428631992</v>
       </c>
       <c r="C12">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00067171571368002418</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1404,10 +1563,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.9999999999999778</v>
+        <v>0.99992877206311481</v>
       </c>
       <c r="C13">
-        <v>2.2204460492502639e-14</v>
+        <v>7.122793688519799e-05</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1421,10 +1580,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.9999999999999778</v>
+        <v>0.99991020416469767</v>
       </c>
       <c r="C14">
-        <v>2.2204460492502639e-14</v>
+        <v>8.9795835302298633e-05</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1438,10 +1597,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.9999999999999778</v>
+        <v>0.99981776277894574</v>
       </c>
       <c r="C15">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00018223722105426498</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1455,10 +1614,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.9999999999999778</v>
+        <v>0.90492603270919858</v>
       </c>
       <c r="C16">
-        <v>2.2204460492502639e-14</v>
+        <v>0.095073967290801392</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1472,10 +1631,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.9999999999999778</v>
+        <v>0.97637090955494987</v>
       </c>
       <c r="C17">
-        <v>2.2204460492502639e-14</v>
+        <v>0.023629090445050096</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1489,10 +1648,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.9999999999999778</v>
+        <v>0.9994714962787693</v>
       </c>
       <c r="C18">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00052850372123075366</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1506,10 +1665,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.9999999999999778</v>
+        <v>0.99998680037998344</v>
       </c>
       <c r="C19">
-        <v>2.2204460492502639e-14</v>
+        <v>1.3199620016584876e-05</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1523,10 +1682,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.9999999999999778</v>
+        <v>0.99931624118240336</v>
       </c>
       <c r="C20">
-        <v>2.2204460492502639e-14</v>
+        <v>0.000683758817596606</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1540,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.9999999999999778</v>
+        <v>0.99974118631425146</v>
       </c>
       <c r="C21">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0002588136857484894</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1557,10 +1716,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.9999999999999778</v>
+        <v>0.99995608777397826</v>
       </c>
       <c r="C22">
-        <v>2.2204460492502639e-14</v>
+        <v>4.3912226021762859e-05</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1577,7 +1736,7 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="C23">
-        <v>2.2204460492502639e-14</v>
+        <v>2.2204460492502642e-14</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1591,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.9999999999999778</v>
+        <v>0.99999834481686389</v>
       </c>
       <c r="C24">
-        <v>2.2204460492502639e-14</v>
+        <v>1.6551831361252959e-06</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1608,10 +1767,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9999999999999778</v>
+        <v>0.99995350807861749</v>
       </c>
       <c r="C25">
-        <v>2.2204460492502639e-14</v>
+        <v>4.6491921382478783e-05</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1625,10 +1784,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9999999999999778</v>
+        <v>0.99108024192835587</v>
       </c>
       <c r="C26">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0089197580716441037</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1642,10 +1801,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9999999999999778</v>
+        <v>0.99731349409659165</v>
       </c>
       <c r="C27">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0026865059034083282</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1659,16 +1818,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1676,16 +1835,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1693,16 +1852,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1710,16 +1869,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.99996215660003496</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3.7843399965026915e-05</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1727,16 +1886,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.99979754446022395</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.00020245553977606462</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1744,16 +1903,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.99987306821813149</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.00012693178186846854</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1761,16 +1920,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.99865733070660523</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.0013426692933947444</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1778,10 +1937,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5.9520030848192462e-05</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.99994047996915181</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1795,10 +1954,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.00062671406886449788</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.9993732859311355</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1812,10 +1971,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4.3109702988264331e-05</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.99995689029701174</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1829,10 +1988,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.00019923596748916417</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.99980076403251084</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1846,10 +2005,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.00013201612341717794</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.99986798387658282</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1863,10 +2022,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.00017600099836778682</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.99982399900163221</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1880,10 +2039,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.0016759540494676317</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.99832404595053237</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1897,10 +2056,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.0017242539801827217</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.99827574601981728</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1914,10 +2073,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.00012935076597508921</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.99987064923402491</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1931,10 +2090,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.10699175985500164</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.89300824014499836</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1948,10 +2107,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.002723734785412768</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.99727626521458723</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1965,10 +2124,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.0010090451512632104</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.99899095484873679</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1982,10 +2141,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>8.9564163028299517e-05</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.9999104358369717</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1999,10 +2158,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.001207234135300328</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.99879276586469967</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2016,10 +2175,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>6.7989889740438514e-07</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0.9999993201011026</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2033,10 +2192,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>4.164543680573729e-06</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.99999583545631943</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2050,10 +2209,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>5.2892689228145606e-05</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.99994710731077185</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2067,10 +2226,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>8.5552982920678033e-05</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.99991444701707932</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2084,10 +2243,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>5.8041751763604488e-05</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.9999419582482364</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -2101,10 +2260,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1.4221339376341291e-05</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.99998577866062366</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2118,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1.0638511127591954e-06</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.99999893614888724</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2135,10 +2294,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.00039121281190290791</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.99960878718809709</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2152,10 +2311,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1.6477369534362296e-06</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.99999835226304656</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2169,10 +2328,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1.5344936565853118e-07</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.99999984655063434</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2186,10 +2345,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3.1318807713898167e-07</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.99999968681192286</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2203,10 +2362,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1.5554649962501443e-06</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.99999844453500375</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2220,10 +2379,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>6.7311652899304519e-05</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.9999326883471007</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2237,10 +2396,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.00073614969745949832</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.9992638503025405</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2254,10 +2413,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.0053094439782176428</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.99469055602178236</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2271,10 +2430,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>8.3033147935118734e-07</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.99999916966852065</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2288,10 +2447,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1.1724678095070828e-07</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.99999988275321905</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2305,10 +2464,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4.6732928261628004e-06</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.99999532670717384</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2322,10 +2481,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>6.3937101032807142e-05</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.99993606289896719</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2339,10 +2498,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>7.0945943769884501e-05</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.99992905405623012</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2356,10 +2515,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>9.5058625970700916e-08</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.99999990494137403</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2373,10 +2532,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3.8231763601848101e-05</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.99996176823639815</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2390,13 +2549,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.9999999999999778</v>
+        <v>1.5152796227435594e-05</v>
       </c>
       <c r="C71">
-        <v>2.2204460492502639e-14</v>
+        <v>0.99998484720377256</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2407,10 +2566,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3.4454944379369579e-05</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.99996554505562063</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2424,15 +2583,202 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.0005317185457625051</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.99946828145423749</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5.7245338425104819e-07</v>
+      </c>
+      <c r="C74">
+        <v>0.99999942754661575</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>8.1547423547156939e-07</v>
+      </c>
+      <c r="C75">
+        <v>0.99999918452576453</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1.5387788131704383e-05</v>
+      </c>
+      <c r="C76">
+        <v>0.9999846122118683</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1.0005016126690691e-07</v>
+      </c>
+      <c r="C77">
+        <v>0.99999989994983873</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>5.9754010801049695e-05</v>
+      </c>
+      <c r="C78">
+        <v>0.99994024598919895</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.00014365961478657319</v>
+      </c>
+      <c r="C79">
+        <v>0.99985634038521343</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4.2682251308989727e-05</v>
+      </c>
+      <c r="C80">
+        <v>0.99995731774869101</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.00014280074018102606</v>
+      </c>
+      <c r="C81">
+        <v>0.99985719925981897</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1.8107226381069985e-05</v>
+      </c>
+      <c r="C82">
+        <v>0.99998189277361893</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1.411337735568452e-08</v>
+      </c>
+      <c r="C83">
+        <v>0.99999998588662264</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>4.1068119583487217e-05</v>
+      </c>
+      <c r="C84">
+        <v>0.99995893188041651</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>2</v>
       </c>
     </row>
@@ -2442,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E85"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
+    <col min="1" max="1" width="27.28515625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="17.140625" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
@@ -2457,27 +2803,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>0.99994505474532169</v>
+        <v>0.99997948004015791</v>
       </c>
       <c r="C2">
-        <v>5.4945254678347479e-05</v>
+        <v>2.0519959842059232e-05</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2488,13 +2834,13 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B3">
-        <v>0.99931835070783626</v>
+        <v>0.99991783186344352</v>
       </c>
       <c r="C3">
-        <v>0.00068164929216374284</v>
+        <v>8.2168136556458554e-05</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2505,13 +2851,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>0.9994966504694649</v>
+        <v>0.99987052205534321</v>
       </c>
       <c r="C4">
-        <v>0.00050334953053512294</v>
+        <v>0.00012947794465674765</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2522,13 +2868,13 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>0.99997175530850013</v>
+        <v>0.99880930745695473</v>
       </c>
       <c r="C5">
-        <v>2.8244691499815121e-05</v>
+        <v>0.0011906925430452532</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2539,13 +2885,13 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>0.9802261727407322</v>
+        <v>0.9999953527212434</v>
       </c>
       <c r="C6">
-        <v>0.019773827259267841</v>
+        <v>4.6472787566530607e-06</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2556,13 +2902,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>0.98984367423637309</v>
+        <v>0.99996718132539231</v>
       </c>
       <c r="C7">
-        <v>0.010156325763626859</v>
+        <v>3.281867460771995e-05</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2573,13 +2919,13 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>0.99989392115641829</v>
+        <v>0.99999187707903181</v>
       </c>
       <c r="C8">
-        <v>0.00010607884358171315</v>
+        <v>8.1229209682191041e-06</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2590,13 +2936,13 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>0.99715767232655184</v>
+        <v>0.99996271988847241</v>
       </c>
       <c r="C9">
-        <v>0.0028423276734481175</v>
+        <v>3.7280111527566278e-05</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2607,13 +2953,13 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>0.99982028873732187</v>
+        <v>0.99993296823828504</v>
       </c>
       <c r="C10">
-        <v>0.00017971126267811389</v>
+        <v>6.7031761714934213e-05</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2624,13 +2970,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>0.99995991015371566</v>
+        <v>0.99996372384175858</v>
       </c>
       <c r="C11">
-        <v>4.0089846284323478e-05</v>
+        <v>3.6276158241476363e-05</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2641,13 +2987,13 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>0.99986685365228112</v>
+        <v>0.99984017812463621</v>
       </c>
       <c r="C12">
-        <v>0.00013314634771884713</v>
+        <v>0.00015982187536377383</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2658,13 +3004,13 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B13">
-        <v>0.99996732973695879</v>
+        <v>0.99987917504384638</v>
       </c>
       <c r="C13">
-        <v>3.2670263041254601e-05</v>
+        <v>0.00012082495615361271</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2675,13 +3021,13 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>0.99942864056073855</v>
+        <v>0.98383130201141789</v>
       </c>
       <c r="C14">
-        <v>0.00057135943926144613</v>
+        <v>0.01616869798858216</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2692,13 +3038,13 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B15">
-        <v>0.97267007517464366</v>
+        <v>0.99685906896245124</v>
       </c>
       <c r="C15">
-        <v>0.027329924825356351</v>
+        <v>0.0031409310375487788</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2709,13 +3055,13 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B16">
-        <v>0.99920061652383074</v>
+        <v>0.99376868473074975</v>
       </c>
       <c r="C16">
-        <v>0.00079938347616925244</v>
+        <v>0.0062313152692502769</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2726,13 +3072,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>0.99957243325784473</v>
+        <v>0.99937750172414486</v>
       </c>
       <c r="C17">
-        <v>0.00042756674215532536</v>
+        <v>0.00062249827585517689</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2743,13 +3089,13 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B18">
-        <v>0.99841924545127403</v>
+        <v>0.9994305255562087</v>
       </c>
       <c r="C18">
-        <v>0.001580754548725947</v>
+        <v>0.00056947444379132686</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2760,13 +3106,13 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>0.99991428592413245</v>
+        <v>0.99997694905815326</v>
       </c>
       <c r="C19">
-        <v>8.5714075867553518e-05</v>
+        <v>2.3050941846722322e-05</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2777,13 +3123,13 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B20">
-        <v>0.99977501687222947</v>
+        <v>0.99992912888452723</v>
       </c>
       <c r="C20">
-        <v>0.00022498312777054954</v>
+        <v>7.0871115472809218e-05</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2794,13 +3140,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B21">
-        <v>0.98127042891684568</v>
+        <v>0.99969412507970612</v>
       </c>
       <c r="C21">
-        <v>0.018729571083154348</v>
+        <v>0.0003058749202938706</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2811,13 +3157,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>0.99781499984229416</v>
+        <v>0.99999585188003548</v>
       </c>
       <c r="C22">
-        <v>0.0021850001577058205</v>
+        <v>4.1481199645589318e-06</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2828,13 +3174,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B23">
-        <v>0.99998765464937167</v>
+        <v>0.99999700276195636</v>
       </c>
       <c r="C23">
-        <v>1.2345350628321741e-05</v>
+        <v>2.9972380436895169e-06</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2845,13 +3191,13 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>0.99999555178665356</v>
+        <v>0.99976498403911518</v>
       </c>
       <c r="C24">
-        <v>4.448213346479036e-06</v>
+        <v>0.00023501596088487523</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2862,13 +3208,13 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B25">
-        <v>0.99973986748777133</v>
+        <v>0.98556788552901886</v>
       </c>
       <c r="C25">
-        <v>0.00026013251222869067</v>
+        <v>0.014432114470981165</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2879,13 +3225,13 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B26">
-        <v>0.99951790020078668</v>
+        <v>0.99975745612426714</v>
       </c>
       <c r="C26">
-        <v>0.00048209979921336941</v>
+        <v>0.0002425438757328829</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2896,13 +3242,13 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B27">
-        <v>0.99986942489964792</v>
+        <v>0.9999119664420254</v>
       </c>
       <c r="C27">
-        <v>0.00013057510035209953</v>
+        <v>8.8033557974587475e-05</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2913,13 +3259,13 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B28">
-        <v>0.99999999997827504</v>
+        <v>0.99979912245238389</v>
       </c>
       <c r="C28">
-        <v>2.1724925871254973e-11</v>
+        <v>0.00020087754761615635</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2930,13 +3276,13 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B29">
-        <v>0.9999999999999778</v>
+        <v>0.99998928091881045</v>
       </c>
       <c r="C29">
-        <v>2.2204460492502639e-14</v>
+        <v>1.07190811895208e-05</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2947,13 +3293,13 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B30">
-        <v>0.9999999999999778</v>
+        <v>0.99999999866364442</v>
       </c>
       <c r="C30">
-        <v>2.2204460492502639e-14</v>
+        <v>1.3363556340431249e-09</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2964,7 +3310,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>0.9999999999999778</v>
@@ -2981,7 +3327,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>0.9999999999999778</v>
@@ -2998,183 +3344,183 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B33">
-        <v>1.5261692805967897e-05</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C33">
-        <v>0.99998473830719403</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B34">
-        <v>7.8826611293880688e-07</v>
+        <v>0.99967075939418926</v>
       </c>
       <c r="C34">
-        <v>0.99999921173388706</v>
+        <v>0.00032924060581075981</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B35">
-        <v>9.9690723851297847e-05</v>
+        <v>0.99865767669731365</v>
       </c>
       <c r="C35">
-        <v>0.9999003092761487</v>
+        <v>0.0013423233026863869</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B36">
-        <v>6.7873146102348514e-06</v>
+        <v>0.99963143971596624</v>
       </c>
       <c r="C36">
-        <v>0.99999321268538977</v>
+        <v>0.00036856028403374957</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B37">
-        <v>2.7529921242663846e-07</v>
+        <v>0.99989166769790039</v>
       </c>
       <c r="C37">
-        <v>0.99999972470078757</v>
+        <v>0.000108332302099578</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B38">
-        <v>3.0561844128751407e-06</v>
+        <v>0.99980238103721419</v>
       </c>
       <c r="C38">
-        <v>0.99999694381558712</v>
+        <v>0.00019761896278576592</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B39">
-        <v>0.07607081617514122</v>
+        <v>0.99940119075958456</v>
       </c>
       <c r="C39">
-        <v>0.92392918382485878</v>
+        <v>0.00059880924041538894</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B40">
-        <v>9.4972785191771436e-10</v>
+        <v>0.99981058238857168</v>
       </c>
       <c r="C40">
-        <v>0.99999999905027215</v>
+        <v>0.00018941761142835369</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B41">
-        <v>3.4828828709976278e-10</v>
+        <v>0.9987178398022154</v>
       </c>
       <c r="C41">
-        <v>0.99999999965171171</v>
+        <v>0.0012821601977845555</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B42">
-        <v>4.5305910545412331e-07</v>
+        <v>0.99996719387247246</v>
       </c>
       <c r="C42">
-        <v>0.99999954694089455</v>
+        <v>3.2806127527486757e-05</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B43">
-        <v>0.0002924522846665667</v>
+        <v>1.068581275687208e-07</v>
       </c>
       <c r="C43">
-        <v>0.99970754771533343</v>
+        <v>0.99999989314187243</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3185,13 +3531,13 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B44">
-        <v>0.0010550841158574187</v>
+        <v>0.0021010057289798656</v>
       </c>
       <c r="C44">
-        <v>0.99894491588414258</v>
+        <v>0.99789899427102013</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3202,13 +3548,13 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B45">
-        <v>9.7950545147607038e-05</v>
+        <v>0.0046060415134251409</v>
       </c>
       <c r="C45">
-        <v>0.99990204945485239</v>
+        <v>0.99539395848657486</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3219,13 +3565,13 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B46">
-        <v>0.00023534316360862562</v>
+        <v>3.4899270131560911e-06</v>
       </c>
       <c r="C46">
-        <v>0.99976465683639137</v>
+        <v>0.99999651007298684</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3236,13 +3582,13 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B47">
-        <v>8.4240512294719849e-06</v>
+        <v>1.5120678997782022e-07</v>
       </c>
       <c r="C47">
-        <v>0.99999157594877053</v>
+        <v>0.99999984879321002</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3253,13 +3599,13 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B48">
-        <v>0.00068950706490678026</v>
+        <v>5.1525260588158872e-06</v>
       </c>
       <c r="C48">
-        <v>0.99931049293509322</v>
+        <v>0.99999484747394118</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3270,13 +3616,13 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B49">
-        <v>1.3056222769591841e-13</v>
+        <v>3.2638279634511491e-08</v>
       </c>
       <c r="C49">
-        <v>0.99999999999986944</v>
+        <v>0.99999996736172037</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3287,13 +3633,13 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B50">
-        <v>6.3149485640678904e-13</v>
+        <v>2.1613440324141919e-06</v>
       </c>
       <c r="C50">
-        <v>0.99999999999936851</v>
+        <v>0.99999783865596759</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3304,13 +3650,13 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B51">
-        <v>4.1953499729796562e-07</v>
+        <v>1.2858938598370173e-06</v>
       </c>
       <c r="C51">
-        <v>0.9999995804650027</v>
+        <v>0.99999871410614016</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3321,13 +3667,13 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B52">
-        <v>5.7387326277691378e-06</v>
+        <v>7.357613608371949e-06</v>
       </c>
       <c r="C52">
-        <v>0.99999426126737223</v>
+        <v>0.99999264238639163</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3338,13 +3684,13 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B53">
-        <v>2.9603349055995487e-05</v>
+        <v>9.3463885774136557e-06</v>
       </c>
       <c r="C53">
-        <v>0.999970396650944</v>
+        <v>0.99999065361142259</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3355,13 +3701,13 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B54">
-        <v>1.0029415427048605e-06</v>
+        <v>6.287722161546494e-05</v>
       </c>
       <c r="C54">
-        <v>0.9999989970584573</v>
+        <v>0.99993712277838454</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3372,13 +3718,13 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B55">
-        <v>4.2563879798507287e-07</v>
+        <v>1.7901417176502399e-05</v>
       </c>
       <c r="C55">
-        <v>0.99999957436120201</v>
+        <v>0.9999820985828235</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3389,13 +3735,13 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B56">
-        <v>1.8807570401069285e-07</v>
+        <v>0.0022448149413861751</v>
       </c>
       <c r="C56">
-        <v>0.99999981192429599</v>
+        <v>0.99775518505861382</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3406,13 +3752,13 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B57">
-        <v>1.9450599269887903e-05</v>
+        <v>0.0018478392423219026</v>
       </c>
       <c r="C57">
-        <v>0.99998054940073011</v>
+        <v>0.9981521607576781</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3423,13 +3769,13 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B58">
-        <v>4.6324249880491664e-08</v>
+        <v>2.4744188016345703e-05</v>
       </c>
       <c r="C58">
-        <v>0.99999995367575012</v>
+        <v>0.99997525581198365</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3440,13 +3786,13 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B59">
-        <v>9.7112508046226509e-07</v>
+        <v>0.0004080590280698404</v>
       </c>
       <c r="C59">
-        <v>0.99999902887491954</v>
+        <v>0.99959194097193016</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3457,13 +3803,13 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B60">
-        <v>1.2276274001132846e-05</v>
+        <v>0.0024905033203865834</v>
       </c>
       <c r="C60">
-        <v>0.99998772372599887</v>
+        <v>0.99750949667961342</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3474,13 +3820,13 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B61">
-        <v>2.3590769226977667e-08</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.99999997640923077</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3491,13 +3837,13 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B62">
-        <v>1.2599246086431037e-06</v>
+        <v>0.010158643773544584</v>
       </c>
       <c r="C62">
-        <v>0.99999874007539136</v>
+        <v>0.98984135622645542</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3508,13 +3854,13 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B63">
-        <v>1.0250566673253303e-06</v>
+        <v>0.0016609877604248924</v>
       </c>
       <c r="C63">
-        <v>0.99999897494333267</v>
+        <v>0.99833901223957511</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3525,13 +3871,13 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B64">
-        <v>1.1639093215221052e-05</v>
+        <v>2.6280139890921816e-06</v>
       </c>
       <c r="C64">
-        <v>0.99998836090678478</v>
+        <v>0.99999737198601091</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3542,13 +3888,13 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B65">
-        <v>7.708443114928798e-07</v>
+        <v>2.5952772713111472e-06</v>
       </c>
       <c r="C65">
-        <v>0.99999922915568851</v>
+        <v>0.99999740472272869</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3559,13 +3905,13 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B66">
-        <v>1.3749943850172031e-08</v>
+        <v>1.6473802908478774e-06</v>
       </c>
       <c r="C66">
-        <v>0.99999998625005615</v>
+        <v>0.99999835261970915</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3576,13 +3922,13 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B67">
-        <v>4.202567338573715e-08</v>
+        <v>1.1446710246332259e-10</v>
       </c>
       <c r="C67">
-        <v>0.99999995797432661</v>
+        <v>0.9999999998855329</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3593,13 +3939,13 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B68">
-        <v>2.5440580552205105e-06</v>
+        <v>2.0585750537094327e-05</v>
       </c>
       <c r="C68">
-        <v>0.99999745594194478</v>
+        <v>0.99997941424946291</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3610,13 +3956,13 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B69">
-        <v>4.1503648990914854e-06</v>
+        <v>1.0600658839621246e-06</v>
       </c>
       <c r="C69">
-        <v>0.99999584963510091</v>
+        <v>0.99999893993411604</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3627,13 +3973,13 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B70">
-        <v>1.7490145731713369e-07</v>
+        <v>4.4520958474514316e-05</v>
       </c>
       <c r="C70">
-        <v>0.99999982509854268</v>
+        <v>0.99995547904152549</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3644,13 +3990,13 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B71">
-        <v>9.6755901735079419e-08</v>
+        <v>1.7934365659222351e-08</v>
       </c>
       <c r="C71">
-        <v>0.99999990324409826</v>
+        <v>0.99999998206563434</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3661,13 +4007,13 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B72">
-        <v>1.382187112763944e-06</v>
+        <v>1.3783193744121292e-06</v>
       </c>
       <c r="C72">
-        <v>0.99999861781288724</v>
+        <v>0.99999862168062559</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3678,13 +4024,13 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B73">
-        <v>1.4649845081482482e-07</v>
+        <v>9.0304734326696057e-05</v>
       </c>
       <c r="C73">
-        <v>0.99999985350154919</v>
+        <v>0.9999096952656733</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3695,18 +4041,205 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B74">
-        <v>2.8739315062198401e-06</v>
+        <v>0.0024492231785665508</v>
       </c>
       <c r="C74">
-        <v>0.99999712606849378</v>
+        <v>0.99755077682143345</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75">
+        <v>0.00060593295100563882</v>
+      </c>
+      <c r="C75">
+        <v>0.99939406704899436</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76">
+        <v>0.058411786779943409</v>
+      </c>
+      <c r="C76">
+        <v>0.94158821322005659</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77">
+        <v>0.00016954806159263924</v>
+      </c>
+      <c r="C77">
+        <v>0.99983045193840736</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78">
+        <v>0.00032959153981637623</v>
+      </c>
+      <c r="C78">
+        <v>0.99967040846018362</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79">
+        <v>7.7151771606942532e-06</v>
+      </c>
+      <c r="C79">
+        <v>0.99999228482283931</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80">
+        <v>9.9209637172137377e-09</v>
+      </c>
+      <c r="C80">
+        <v>0.99999999007903628</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81">
+        <v>6.2411637692494359e-05</v>
+      </c>
+      <c r="C81">
+        <v>0.99993758836230751</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82">
+        <v>0.00022639709320315671</v>
+      </c>
+      <c r="C82">
+        <v>0.99977360290679684</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83">
+        <v>2.0756381284847691e-06</v>
+      </c>
+      <c r="C83">
+        <v>0.99999792436187152</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84">
+        <v>4.343238433690555e-05</v>
+      </c>
+      <c r="C84">
+        <v>0.99995656761566309</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85">
+        <v>0.00010754442599769654</v>
+      </c>
+      <c r="C85">
+        <v>0.9998924555740023</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>2</v>
       </c>
     </row>
@@ -3716,11 +4249,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="27.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
     <col min="3" max="3" width="17.140625" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
@@ -3731,27 +4264,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B2">
-        <v>0.99999581701916052</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C2">
-        <v>4.1829808394951713e-06</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3762,13 +4295,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B3">
-        <v>0.99999542570557698</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C3">
-        <v>4.5742944230096843e-06</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3779,13 +4312,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B4">
-        <v>0.97567626946161468</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C4">
-        <v>0.024323730538385293</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3796,13 +4329,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B5">
-        <v>0.99998574605306323</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C5">
-        <v>1.4253946936797084e-05</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3813,13 +4346,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B6">
-        <v>0.99999999907577442</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C6">
-        <v>9.2422553118875156e-10</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3830,13 +4363,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B7">
-        <v>0.99999999347398305</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C7">
-        <v>6.5260169438283827e-09</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3847,13 +4380,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B8">
-        <v>0.99999997899535631</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C8">
-        <v>2.1004643666528238e-08</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3864,13 +4397,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B9">
-        <v>0.99999999912447934</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C9">
-        <v>8.7552063924687216e-10</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3881,13 +4414,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B10">
-        <v>0.99999056706064759</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C10">
-        <v>9.4329393524596005e-06</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3898,16 +4431,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B11">
-        <v>1.4569171652101255e-05</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C11">
-        <v>0.9999854308283479</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3915,13 +4448,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B12">
-        <v>2.9938376457927518e-06</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.99999700616235421</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3932,16 +4465,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B13">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3949,7 +4482,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>0.9999999999999778</v>
@@ -3966,7 +4499,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>0.9999999999999778</v>
@@ -3983,7 +4516,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B16">
         <v>0.9999999999999778</v>
@@ -4000,7 +4533,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>0.9999999999999778</v>
@@ -4017,7 +4550,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B18">
         <v>0.9999999999999778</v>
@@ -4034,7 +4567,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>0.9999999999999778</v>
@@ -4051,251 +4584,251 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B20">
-        <v>4.8700354859931849e-10</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C20">
-        <v>0.99999999951299645</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B21">
-        <v>1.7861045975564593e-11</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C21">
-        <v>0.99999999998213895</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B22">
-        <v>6.9315200135200428e-08</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C22">
-        <v>0.99999993068479986</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B23">
-        <v>7.7752970939481969e-07</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C23">
-        <v>0.99999922247029061</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B24">
-        <v>2.1437740471696998e-11</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C24">
-        <v>0.99999999997856226</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B25">
-        <v>2.6356694604601216e-13</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C25">
-        <v>0.99999999999973643</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B26">
-        <v>6.9065642094301438e-11</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C26">
-        <v>0.99999999993093436</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B27">
-        <v>2.0765411612444493e-10</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C27">
-        <v>0.99999999979234588</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B28">
-        <v>4.8216253212274296e-10</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C28">
-        <v>0.99999999951783747</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B29">
-        <v>5.8671734137760723e-11</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C29">
-        <v>0.99999999994132827</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B30">
-        <v>2.6645352591003757e-14</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C30">
-        <v>0.99999999999997335</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B31">
-        <v>1.0985596876622594e-09</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C31">
-        <v>0.99999999890144031</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B32">
-        <v>3.5527136788005009e-14</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C32">
-        <v>0.99999999999996447</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B33">
-        <v>1.0687228879646682e-09</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C33">
-        <v>0.99999999893127711</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B34">
-        <v>2.9989344341174728e-12</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.99999999999700107</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4306,13 +4839,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B35">
-        <v>1.2856063803523554e-06</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.99999871439361965</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -4323,13 +4856,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B36">
-        <v>2.7533531010703885e-14</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.99999999999997247</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -4340,13 +4873,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B37">
-        <v>4.333022829428046e-11</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.99999999995666977</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4357,13 +4890,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B38">
-        <v>4.4588777114995537e-12</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.99999999999554112</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4374,13 +4907,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B39">
-        <v>1.5631940186722204e-13</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.99999999999984368</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4391,13 +4924,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B40">
-        <v>1.0316103526974985e-10</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.99999999989683896</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4408,13 +4941,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B41">
-        <v>7.7744734561235873e-07</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.99999922255265439</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -4425,13 +4958,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B42">
-        <v>8.4292554047848967e-09</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.9999999915707446</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4442,13 +4975,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B43">
-        <v>3.8450598149886162e-08</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.99999996154940185</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4459,13 +4992,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B44">
-        <v>2.8312907573990742e-12</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.99999999999716871</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4476,13 +5009,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B45">
-        <v>3.9630076997809738e-11</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.99999999996036992</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -4493,7 +5026,7 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4510,7 +5043,7 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4527,13 +5060,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B48">
-        <v>2.6934010577406298e-13</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.99999999999973066</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4544,13 +5077,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B49">
-        <v>2.8986368860728362e-11</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.99999999997101363</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4561,13 +5094,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B50">
-        <v>2.3379076452556546e-12</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.99999999999766209</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4578,13 +5111,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B51">
-        <v>5.0120574357492842e-11</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.99999999994987943</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -4595,13 +5128,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B52">
-        <v>1.9457282018908728e-07</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.99999980542717981</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4612,13 +5145,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B53">
-        <v>7.4783483594575994e-07</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.99999925216516405</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4629,13 +5162,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B54">
-        <v>7.1317751704214061e-10</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.99999999928682248</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4646,13 +5179,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B55">
-        <v>1.8705037518884637e-12</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.9999999999981295</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -4663,13 +5196,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B56">
-        <v>2.4884538873948259e-12</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.99999999999751155</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -4680,13 +5213,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B57">
-        <v>6.6724403779971908e-12</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.99999999999332756</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -4697,7 +5230,7 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4714,7 +5247,7 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4731,13 +5264,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B60">
-        <v>3.3670211063707711e-09</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.99999999663297889</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4748,13 +5281,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B61">
-        <v>1.5746913328840151e-08</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.99999998425308667</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -4765,13 +5298,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B62">
-        <v>1.5343526449385081e-09</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.99999999846564736</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -4782,13 +5315,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B63">
-        <v>3.3711033964323178e-11</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.99999999996628897</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -4799,13 +5332,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B64">
-        <v>7.0536909646534696e-10</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.9999999992946309</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -4816,13 +5349,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B65">
-        <v>1.1590950421691559e-11</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.99999999998840905</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4833,7 +5366,7 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4850,7 +5383,7 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4867,13 +5400,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B68">
-        <v>1.9460252864700323e-07</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.99999980539747135</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4884,13 +5417,13 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="B69">
-        <v>1.9781489206671665e-06</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.99999802185107933</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4901,7 +5434,7 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4918,13 +5451,13 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B71">
-        <v>8.7758847966412645e-09</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0.9999999912241152</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4935,13 +5468,13 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B72">
-        <v>1.1362244478618777e-11</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.99999999998863776</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4952,13 +5485,13 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B73">
-        <v>4.1809760098487914e-09</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.99999999581902399</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4969,18 +5502,188 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B74">
-        <v>5.8454547091635334e-08</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.99999994154545291</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>2</v>
       </c>
     </row>
@@ -4990,11 +5693,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="27.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
     <col min="3" max="3" width="17.140625" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
@@ -5005,21 +5708,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>0.9999999999999778</v>
@@ -5036,7 +5739,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>0.9999999999999778</v>
@@ -5053,7 +5756,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>0.9999999999999778</v>
@@ -5070,7 +5773,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B5">
         <v>0.9999999999999778</v>
@@ -5087,7 +5790,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B6">
         <v>0.9999999999999778</v>
@@ -5104,7 +5807,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <v>0.9999999999999778</v>
@@ -5121,7 +5824,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B8">
         <v>0.9999999999999778</v>
@@ -5138,13 +5841,13 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B9">
-        <v>0.99999999999878875</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C9">
-        <v>1.2112764600332029e-12</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5155,7 +5858,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B10">
         <v>0.9999999999999778</v>
@@ -5172,7 +5875,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B11">
         <v>0.9999999999999778</v>
@@ -5189,7 +5892,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B12">
         <v>0.9999999999999778</v>
@@ -5206,7 +5909,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B13">
         <v>0.9999999999999778</v>
@@ -5223,13 +5926,13 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B14">
-        <v>0.5665233413113705</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C14">
-        <v>0.43347665868862956</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5240,7 +5943,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B15">
         <v>0.9999999999999778</v>
@@ -5257,7 +5960,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="B16">
         <v>0.9999999999999778</v>
@@ -5274,7 +5977,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="B17">
         <v>0.9999999999999778</v>
@@ -5291,228 +5994,228 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5529,7 +6232,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5546,7 +6249,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5563,7 +6266,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5580,7 +6283,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5597,7 +6300,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5614,7 +6317,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5631,7 +6334,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5648,7 +6351,7 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5665,7 +6368,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5682,7 +6385,7 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5699,7 +6402,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5716,7 +6419,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5733,7 +6436,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5750,7 +6453,7 @@
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5767,7 +6470,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5784,7 +6487,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5801,7 +6504,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5818,7 +6521,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5835,7 +6538,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5852,7 +6555,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5869,7 +6572,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5886,7 +6589,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5903,7 +6606,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5920,7 +6623,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5937,7 +6640,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5954,7 +6657,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5971,7 +6674,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5988,7 +6691,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6005,7 +6708,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6022,7 +6725,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6039,7 +6742,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -6056,7 +6759,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -6073,7 +6776,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -6090,7 +6793,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -6107,7 +6810,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -6124,7 +6827,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -6141,7 +6844,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -6158,7 +6861,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -6175,7 +6878,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -6192,7 +6895,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -6209,7 +6912,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -6226,7 +6929,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -6243,7 +6946,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -6255,6 +6958,176 @@
         <v>2</v>
       </c>
       <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C82">
+        <v>2.2204460492502639e-14</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>2</v>
       </c>
     </row>
@@ -6264,10 +7137,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
+    <col min="1" max="1" width="27.28515625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="17.140625" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
@@ -6279,27 +7152,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="B2">
-        <v>0.99855061967137737</v>
+        <v>0.99937987434907405</v>
       </c>
       <c r="C2">
-        <v>0.00144938032862265</v>
+        <v>0.00062012565092594532</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6310,13 +7183,13 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="B3">
-        <v>0.99998046122411688</v>
+        <v>0.99999918234561103</v>
       </c>
       <c r="C3">
-        <v>1.9538775883099764e-05</v>
+        <v>8.1765438894837478e-07</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6327,13 +7200,13 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="B4">
-        <v>0.99991674516426332</v>
+        <v>0.99977076236129625</v>
       </c>
       <c r="C4">
-        <v>8.3254835736642826e-05</v>
+        <v>0.00022923763870378604</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6344,13 +7217,13 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="B5">
-        <v>0.99682958594617777</v>
+        <v>0.99998181205454517</v>
       </c>
       <c r="C5">
-        <v>0.0031704140538222347</v>
+        <v>1.8187945454779334e-05</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6361,13 +7234,13 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="B6">
-        <v>0.9995198220750019</v>
+        <v>0.99900214505953444</v>
       </c>
       <c r="C6">
-        <v>0.00048017792499813731</v>
+        <v>0.00099785494046558394</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6378,13 +7251,13 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="B7">
-        <v>0.99937791584740487</v>
+        <v>0.99953447788750482</v>
       </c>
       <c r="C7">
-        <v>0.00062208415259509451</v>
+        <v>0.0004655221124951471</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6395,13 +7268,13 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B8">
-        <v>0.99938734792099815</v>
+        <v>0.99999538844250235</v>
       </c>
       <c r="C8">
-        <v>0.00061265207900189941</v>
+        <v>4.6115574976830511e-06</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6412,13 +7285,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B9">
-        <v>0.99997153568163155</v>
+        <v>0.99999845755992234</v>
       </c>
       <c r="C9">
-        <v>2.8464318368480566e-05</v>
+        <v>1.5424400776219281e-06</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6429,13 +7302,13 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="B10">
-        <v>0.99962704540799008</v>
+        <v>0.99999790146588674</v>
       </c>
       <c r="C10">
-        <v>0.00037295459200991857</v>
+        <v>2.0985341132533656e-06</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6446,13 +7319,13 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="B11">
-        <v>0.99996307708121845</v>
+        <v>0.99999943892785692</v>
       </c>
       <c r="C11">
-        <v>3.6922918781539697e-05</v>
+        <v>5.610721430913024e-07</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6463,13 +7336,13 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="B12">
-        <v>0.99992246745248703</v>
+        <v>0.99996445301013637</v>
       </c>
       <c r="C12">
-        <v>7.7532547512944612e-05</v>
+        <v>3.554698986363106e-05</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6480,13 +7353,13 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B13">
-        <v>0.99999323870245804</v>
+        <v>0.99986669919632964</v>
       </c>
       <c r="C13">
-        <v>6.7612975419546115e-06</v>
+        <v>0.00013330080367040596</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6497,13 +7370,13 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="B14">
-        <v>0.99913786784349634</v>
+        <v>0.99991629362663648</v>
       </c>
       <c r="C14">
-        <v>0.00086213215650367075</v>
+        <v>8.3706373363542572e-05</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6514,13 +7387,13 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B15">
-        <v>0.93886539946679293</v>
+        <v>0.99999423186787029</v>
       </c>
       <c r="C15">
-        <v>0.061134600533207066</v>
+        <v>5.7681321297364459e-06</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6531,13 +7404,13 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="B16">
-        <v>0.99830767954363264</v>
+        <v>0.9996802413662913</v>
       </c>
       <c r="C16">
-        <v>0.0016923204563673269</v>
+        <v>0.00031975863370874012</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6548,13 +7421,13 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="B17">
-        <v>0.99283544034348081</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C17">
-        <v>0.0071645596565192019</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6565,13 +7438,13 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B18">
-        <v>0.99999999871223633</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18">
-        <v>1.2877636969815088e-09</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6582,13 +7455,13 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="B19">
-        <v>0.9999999999999778</v>
+        <v>0.99948924675263828</v>
       </c>
       <c r="C19">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00051075324736167169</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -6599,13 +7472,13 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="B20">
-        <v>0.9999999999999778</v>
+        <v>0.99828394651223296</v>
       </c>
       <c r="C20">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0017160534877670827</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -6616,7 +7489,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="B21">
         <v>0.9999999999999778</v>
@@ -6633,7 +7506,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B22">
         <v>0.9999999999999778</v>
@@ -6650,7 +7523,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="B23">
         <v>0.9999999999999778</v>
@@ -6667,166 +7540,166 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="B24">
-        <v>1.1806157304228291e-05</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C24">
-        <v>0.99998819384269577</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="B25">
-        <v>1.6573973485867197e-06</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C25">
-        <v>0.99999834260265141</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="B26">
-        <v>3.9450143322072861e-06</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C26">
-        <v>0.99999605498566779</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="B27">
-        <v>4.5801975350090451e-05</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C27">
-        <v>0.99995419802464991</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="B28">
-        <v>3.2596972021736725e-05</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C28">
-        <v>0.99996740302797826</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="B29">
-        <v>0.0004890946395361695</v>
+        <v>0.99999868305961215</v>
       </c>
       <c r="C29">
-        <v>0.99951090536046383</v>
+        <v>1.3169403878135611e-06</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="B30">
-        <v>3.2196705849196761e-06</v>
+        <v>0.99997507393980234</v>
       </c>
       <c r="C30">
-        <v>0.99999678032941508</v>
+        <v>2.4926060197689205e-05</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="B31">
-        <v>2.5937084702221114e-07</v>
+        <v>0.94864013683277726</v>
       </c>
       <c r="C31">
-        <v>0.99999974062915298</v>
+        <v>0.051359863167222734</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="B32">
-        <v>2.1155362220803831e-05</v>
+        <v>0.87907908561206105</v>
       </c>
       <c r="C32">
-        <v>0.9999788446377792</v>
+        <v>0.12092091438793894</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="B33">
-        <v>1.7404967529444093e-06</v>
+        <v>2.3287886774525646e-07</v>
       </c>
       <c r="C33">
-        <v>0.99999825950324706</v>
+        <v>0.99999976712113225</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -6837,13 +7710,13 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="B34">
-        <v>2.5633908234956593e-05</v>
+        <v>3.8667780088985637e-10</v>
       </c>
       <c r="C34">
-        <v>0.99997436609176504</v>
+        <v>0.9999999996133222</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -6854,13 +7727,13 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="B35">
-        <v>6.4381294462290128e-07</v>
+        <v>3.5439513116908294e-05</v>
       </c>
       <c r="C35">
-        <v>0.99999935618705538</v>
+        <v>0.99996456048688309</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -6871,13 +7744,13 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="B36">
-        <v>7.3146925305689336e-07</v>
+        <v>3.9971492560297861e-08</v>
       </c>
       <c r="C36">
-        <v>0.99999926853074694</v>
+        <v>0.99999996002850744</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -6888,13 +7761,13 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B37">
-        <v>0.00038164498610382402</v>
+        <v>1.1294433721609209e-08</v>
       </c>
       <c r="C37">
-        <v>0.99961835501389618</v>
+        <v>0.99999998870556628</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -6905,13 +7778,13 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="B38">
-        <v>5.5751600068765228e-06</v>
+        <v>3.2670265603940152e-08</v>
       </c>
       <c r="C38">
-        <v>0.99999442483999312</v>
+        <v>0.9999999673297344</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -6922,13 +7795,13 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="B39">
-        <v>6.8405207683364111e-05</v>
+        <v>2.6629949356760103e-09</v>
       </c>
       <c r="C39">
-        <v>0.99993159479231664</v>
+        <v>0.99999999733700506</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -6939,13 +7812,13 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="B40">
-        <v>8.8319622325139235e-05</v>
+        <v>7.2538131612454038e-08</v>
       </c>
       <c r="C40">
-        <v>0.99991168037767486</v>
+        <v>0.99999992746186839</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -6956,13 +7829,13 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="B41">
-        <v>1.0583655479456944e-05</v>
+        <v>2.9822810887480955e-12</v>
       </c>
       <c r="C41">
-        <v>0.99998941634452054</v>
+        <v>0.99999999999701772</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -6973,13 +7846,13 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B42">
-        <v>0.00067658312994667291</v>
+        <v>0.00027831713616688347</v>
       </c>
       <c r="C42">
-        <v>0.99932341687005333</v>
+        <v>0.99972168286383312</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6990,13 +7863,13 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.00023345291472087748</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.99976654708527912</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -7007,13 +7880,13 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="B44">
-        <v>2.7977620220553945e-14</v>
+        <v>1.8624946029888181e-10</v>
       </c>
       <c r="C44">
-        <v>0.99999999999997202</v>
+        <v>0.99999999981375054</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -7024,13 +7897,13 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="B45">
-        <v>9.1642278654546772e-08</v>
+        <v>5.2042265830110068e-08</v>
       </c>
       <c r="C45">
-        <v>0.99999990835772135</v>
+        <v>0.99999994795773417</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -7041,13 +7914,13 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B46">
-        <v>7.9951144105194771e-07</v>
+        <v>4.5633719025772734e-11</v>
       </c>
       <c r="C46">
-        <v>0.99999920048855895</v>
+        <v>0.99999999995436628</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -7058,13 +7931,13 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="B47">
-        <v>7.2008627427511129e-06</v>
+        <v>1.4774720114019146e-08</v>
       </c>
       <c r="C47">
-        <v>0.99999279913725725</v>
+        <v>0.99999998522527989</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -7075,13 +7948,13 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B48">
-        <v>2.5769880047654681e-06</v>
+        <v>3.8139169600270861e-09</v>
       </c>
       <c r="C48">
-        <v>0.99999742301199523</v>
+        <v>0.99999999618608304</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -7092,13 +7965,13 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="B49">
-        <v>0.00048978904939600554</v>
+        <v>1.586059950042795e-09</v>
       </c>
       <c r="C49">
-        <v>0.99951021095060399</v>
+        <v>0.99999999841394005</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -7109,13 +7982,13 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="B50">
-        <v>1.6515255552573826e-05</v>
+        <v>2.7174526195938853e-07</v>
       </c>
       <c r="C50">
-        <v>0.99998348474444743</v>
+        <v>0.99999972825473804</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -7126,13 +7999,13 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="B51">
-        <v>1.5346613102540374e-06</v>
+        <v>6.7436924822139588e-08</v>
       </c>
       <c r="C51">
-        <v>0.99999846533868975</v>
+        <v>0.99999993256307518</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -7143,13 +8016,13 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="B52">
-        <v>8.43829495711379e-06</v>
+        <v>2.2070254522943422e-05</v>
       </c>
       <c r="C52">
-        <v>0.99999156170504289</v>
+        <v>0.99997792974547706</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -7160,13 +8033,13 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="B53">
-        <v>5.8845706513155349e-06</v>
+        <v>4.5077697130579963e-10</v>
       </c>
       <c r="C53">
-        <v>0.99999411542934868</v>
+        <v>0.99999999954922303</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -7177,13 +8050,13 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="B54">
-        <v>1.2938317084376649e-10</v>
+        <v>8.8697609644583508e-05</v>
       </c>
       <c r="C54">
-        <v>0.99999999987061683</v>
+        <v>0.99991130239035542</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -7194,13 +8067,13 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B55">
-        <v>2.8300259601765632e-05</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.99997169974039823</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -7211,13 +8084,13 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="B56">
-        <v>7.3801355138236602e-08</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.99999992619864486</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -7228,13 +8101,13 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="B57">
-        <v>5.5604507838702411e-05</v>
+        <v>3.4602841680886343e-07</v>
       </c>
       <c r="C57">
-        <v>0.9999443954921613</v>
+        <v>0.99999965397158319</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -7245,13 +8118,13 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="B58">
-        <v>5.5623817522221231e-05</v>
+        <v>7.6228109129328203e-06</v>
       </c>
       <c r="C58">
-        <v>0.99994437618247778</v>
+        <v>0.99999237718908707</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -7262,13 +8135,13 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="B59">
-        <v>1.0057463761814489e-07</v>
+        <v>4.0766651421275663e-07</v>
       </c>
       <c r="C59">
-        <v>0.99999989942536238</v>
+        <v>0.99999959233348579</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -7279,13 +8152,13 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="B60">
-        <v>3.9754331382368946e-08</v>
+        <v>1.3140111221332518e-10</v>
       </c>
       <c r="C60">
-        <v>0.99999996024566862</v>
+        <v>0.99999999986859889</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -7296,13 +8169,13 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="B61">
-        <v>5.2990802329011544e-05</v>
+        <v>1.3907655027622923e-09</v>
       </c>
       <c r="C61">
-        <v>0.99994700919767099</v>
+        <v>0.9999999986092345</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -7313,13 +8186,13 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="B62">
-        <v>1.046712470997857e-05</v>
+        <v>5.115769585728458e-09</v>
       </c>
       <c r="C62">
-        <v>0.99998953287529002</v>
+        <v>0.99999999488423041</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -7330,13 +8203,13 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="B63">
-        <v>1.455804939931582e-07</v>
+        <v>7.3887500229297132e-08</v>
       </c>
       <c r="C63">
-        <v>0.99999985441950601</v>
+        <v>0.99999992611249977</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -7347,13 +8220,13 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="B64">
-        <v>7.0058666867822694e-08</v>
+        <v>1.0362768421146029e-09</v>
       </c>
       <c r="C64">
-        <v>0.99999992994133313</v>
+        <v>0.99999999896372316</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -7364,13 +8237,13 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="B65">
-        <v>6.614299345564234e-06</v>
+        <v>5.4134474680722633e-13</v>
       </c>
       <c r="C65">
-        <v>0.99999338570065444</v>
+        <v>0.99999999999945866</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -7381,13 +8254,13 @@
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="B66">
-        <v>3.6948700543604218e-08</v>
+        <v>2.4622623939762889e-09</v>
       </c>
       <c r="C66">
-        <v>0.99999996305129946</v>
+        <v>0.99999999753773761</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -7398,13 +8271,13 @@
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="B67">
-        <v>1.5485132509596156e-08</v>
+        <v>3.1514075782279605e-07</v>
       </c>
       <c r="C67">
-        <v>0.99999998451486749</v>
+        <v>0.99999968485924218</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -7415,13 +8288,13 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="B68">
-        <v>1.0684344346811869e-05</v>
+        <v>4.5239645773964554e-07</v>
       </c>
       <c r="C68">
-        <v>0.99998931565565319</v>
+        <v>0.99999954760354226</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -7432,13 +8305,13 @@
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="B69">
-        <v>4.1261394301272958e-10</v>
+        <v>1.2107856606213829e-08</v>
       </c>
       <c r="C69">
-        <v>0.99999999958738606</v>
+        <v>0.99999998789214339</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -7449,13 +8322,13 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="B70">
-        <v>8.8378181384296539e-07</v>
+        <v>2.1294091823165214e-08</v>
       </c>
       <c r="C70">
-        <v>0.99999911621818616</v>
+        <v>0.99999997870590818</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -7466,13 +8339,13 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="B71">
-        <v>1.9018997751141242e-06</v>
+        <v>1.9612578228134225e-10</v>
       </c>
       <c r="C71">
-        <v>0.99999809810022489</v>
+        <v>0.99999999980387422</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -7483,13 +8356,13 @@
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="B72">
-        <v>2.1206682900842821e-06</v>
+        <v>2.655259789818842e-09</v>
       </c>
       <c r="C72">
-        <v>0.99999787933170992</v>
+        <v>0.99999999734474021</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -7500,18 +8373,205 @@
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="B73">
-        <v>1.1902408160735511e-05</v>
+        <v>2.244360253200739e-11</v>
       </c>
       <c r="C73">
-        <v>0.99998809759183926</v>
+        <v>0.9999999999775564</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74">
+        <v>3.308797680290354e-11</v>
+      </c>
+      <c r="C74">
+        <v>0.99999999996691202</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75">
+        <v>5.0059730472007402e-08</v>
+      </c>
+      <c r="C75">
+        <v>0.99999994994026953</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76">
+        <v>3.996558639585146e-11</v>
+      </c>
+      <c r="C76">
+        <v>0.99999999996003441</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77">
+        <v>7.6936235160474098e-12</v>
+      </c>
+      <c r="C77">
+        <v>0.99999999999230638</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B78">
+        <v>1.5644996409491796e-10</v>
+      </c>
+      <c r="C78">
+        <v>0.99999999984355004</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B79">
+        <v>8.4840593916890583e-07</v>
+      </c>
+      <c r="C79">
+        <v>0.99999915159406083</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B80">
+        <v>1.2343279176540989e-08</v>
+      </c>
+      <c r="C80">
+        <v>0.99999998765672082</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B81">
+        <v>4.0478731477833207e-12</v>
+      </c>
+      <c r="C81">
+        <v>0.99999999999595213</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B82">
+        <v>1.354141021536748e-09</v>
+      </c>
+      <c r="C82">
+        <v>0.99999999864585898</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B83">
+        <v>4.6463918601524767e-08</v>
+      </c>
+      <c r="C83">
+        <v>0.9999999535360814</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84">
+        <v>2.0265886391257482e-07</v>
+      </c>
+      <c r="C84">
+        <v>0.99999979734113609</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>2</v>
       </c>
     </row>
